--- a/CASUAL/LA GSO/MULINGTAPANG, GUILLERMA.xlsx
+++ b/CASUAL/LA GSO/MULINGTAPANG, GUILLERMA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA GSO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA GSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499B335C-253D-46D4-B444-936079BE660E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F54864F-B444-4669-A64F-779DA6F349A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="93">
   <si>
     <t>PERIOD</t>
   </si>
@@ -710,17 +710,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -730,6 +727,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1619,10 +1619,10 @@
   </sheetPr>
   <dimension ref="A2:K131"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A79" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A82" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
+      <selection pane="bottomLeft" activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1652,14 +1652,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -1670,16 +1670,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="55">
         <v>42552</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -1692,14 +1692,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -1725,18 +1725,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -1783,7 +1783,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>59.911000000000001</v>
+        <v>60.411000000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1793,7 +1793,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>88.75</v>
+        <v>91.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3422,14 +3422,20 @@
       <c r="A89" s="40">
         <v>45291</v>
       </c>
-      <c r="B89" s="20"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="39"/>
+      <c r="B89" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D89" s="39">
+        <v>2</v>
+      </c>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
@@ -3458,19 +3464,25 @@
       <c r="A91" s="40">
         <v>45322</v>
       </c>
-      <c r="B91" s="20"/>
-      <c r="C91" s="13"/>
+      <c r="B91" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C91" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G91" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
+      <c r="K91" s="49">
+        <v>45317</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
@@ -4132,17 +4144,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -4177,10 +4189,10 @@
   </sheetPr>
   <dimension ref="A2:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3696" topLeftCell="A28" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4210,14 +4222,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -4228,16 +4240,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="55">
         <v>42552</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -4250,16 +4262,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -4285,18 +4297,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
